--- a/Cwiczenia/Punkty/punkty.xlsx
+++ b/Cwiczenia/Punkty/punkty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="948" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
   <si>
     <t>indeks</t>
   </si>
@@ -30,12 +30,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>* plik sie nie otwiera</t>
   </si>
 </sst>
 </file>
@@ -155,7 +149,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -254,12 +248,15 @@
         <v>40</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="2" t="n">
-        <v>300</v>
+        <f aca="false">SUM(B2:N2)</f>
+        <v>340</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -298,14 +295,17 @@
       <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="2" t="n">
         <v>50</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="2" t="n">
-        <v>450</v>
+        <f aca="false">SUM(B3:N3)</f>
+        <v>490</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -320,7 +320,9 @@
       <c r="C4" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="E4" s="2" t="n">
         <v>10</v>
       </c>
@@ -340,12 +342,15 @@
         <v>40</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="2" t="n">
-        <v>245</v>
+        <f aca="false">SUM(B4:N4)</f>
+        <v>305</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -385,6 +390,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="2" t="n">
+        <f aca="false">SUM(B5:N5)</f>
         <v>265</v>
       </c>
       <c r="Q5" s="3"/>
@@ -406,9 +412,13 @@
       <c r="E6" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
@@ -421,7 +431,8 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="2" t="n">
-        <v>190</v>
+        <f aca="false">SUM(B6:N6)</f>
+        <v>240</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -439,14 +450,24 @@
       <c r="D7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -455,7 +476,8 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="2" t="n">
-        <v>170</v>
+        <f aca="false">SUM(B7:N7)</f>
+        <v>320</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -494,14 +516,19 @@
       <c r="K8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="N8" s="2" t="n">
         <v>50</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="2" t="n">
-        <v>490</v>
+        <f aca="false">SUM(B8:N8)</f>
+        <v>590</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -513,9 +540,13 @@
       <c r="B9" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="F9" s="2" t="n">
         <v>10</v>
       </c>
@@ -530,12 +561,15 @@
         <v>35</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="2" t="n">
-        <v>105</v>
+        <f aca="false">SUM(B9:N9)</f>
+        <v>210</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -550,24 +584,35 @@
       <c r="C10" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="F10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="2" t="n">
-        <v>100</v>
+        <f aca="false">SUM(B10:N10)</f>
+        <v>260</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -589,21 +634,28 @@
         <v>40</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="2" t="n">
-        <v>170</v>
+        <f aca="false">SUM(B11:N11)</f>
+        <v>300</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -637,6 +689,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="2" t="n">
+        <f aca="false">SUM(B12:N12)</f>
         <v>100</v>
       </c>
       <c r="Q12" s="3"/>
@@ -679,6 +732,7 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="2" t="n">
+        <f aca="false">SUM(B13:N13)</f>
         <v>315</v>
       </c>
       <c r="Q13" s="3"/>
@@ -716,12 +770,15 @@
         <v>40</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="2" t="n">
-        <v>285</v>
+        <f aca="false">SUM(B14:N14)</f>
+        <v>325</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -763,6 +820,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="2" t="n">
+        <f aca="false">SUM(B15:N15)</f>
         <v>285</v>
       </c>
       <c r="Q15" s="3"/>
@@ -784,24 +842,33 @@
       <c r="E16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="G16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="K16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="2" t="n">
-        <v>240</v>
+        <f aca="false">SUM(B16:N16)</f>
+        <v>390</v>
       </c>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -837,13 +904,18 @@
       <c r="J17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="2" t="n">
-        <v>200</v>
+        <f aca="false">SUM(B17:N17)</f>
+        <v>270</v>
       </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -868,7 +940,10 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2" t="n">
+        <f aca="false">SUM(B18:N18)</f>
+        <v>0</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
     </row>
@@ -897,6 +972,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="2" t="n">
+        <f aca="false">SUM(B19:N19)</f>
         <v>80</v>
       </c>
       <c r="Q19" s="3"/>
@@ -922,7 +998,10 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2" t="n">
+        <f aca="false">SUM(B20:N20)</f>
+        <v>0</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
     </row>
@@ -952,12 +1031,15 @@
         <v>40</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="2" t="n">
-        <v>200</v>
+        <f aca="false">SUM(B21:N21)</f>
+        <v>240</v>
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -993,15 +1075,20 @@
       <c r="J22" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="2" t="n">
         <v>50</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="2" t="n">
-        <v>380</v>
+        <f aca="false">SUM(B22:N22)</f>
+        <v>450</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1025,19 +1112,28 @@
       <c r="F23" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="N23" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="O23" s="5"/>
       <c r="P23" s="2" t="n">
-        <v>200</v>
+        <f aca="false">SUM(B23:N23)</f>
+        <v>370</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1062,14 +1158,17 @@
       <c r="I24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="2" t="n">
-        <v>75</v>
+        <f aca="false">SUM(B24:N24)</f>
+        <v>115</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1100,14 +1199,17 @@
       <c r="I25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="2" t="n">
-        <v>210</v>
+        <f aca="false">SUM(B25:N25)</f>
+        <v>250</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1143,15 +1245,22 @@
       <c r="J26" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="K26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="N26" s="2" t="n">
         <v>50</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="2" t="n">
-        <v>385</v>
+        <f aca="false">SUM(B26:N26)</f>
+        <v>505</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1187,6 +1296,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="2" t="n">
+        <f aca="false">SUM(B27:N27)</f>
         <v>200</v>
       </c>
       <c r="Q27" s="3"/>
@@ -1229,6 +1339,7 @@
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="2" t="n">
+        <f aca="false">SUM(B28:N28)</f>
         <v>315</v>
       </c>
       <c r="Q28" s="3"/>
@@ -1247,8 +1358,8 @@
       <c r="D29" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
+      <c r="E29" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>40</v>
@@ -1268,17 +1379,18 @@
       <c r="K29" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="2" t="n">
-        <v>255</v>
+        <f aca="false">SUM(B29:N29)</f>
+        <v>305</v>
       </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -1293,21 +1405,36 @@
       <c r="D30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="J30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="2" t="n">
-        <v>120</v>
+        <f aca="false">SUM(B30:N30)</f>
+        <v>380</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1325,25 +1452,34 @@
       <c r="D31" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="H31" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="2" t="n">
-        <v>160</v>
+        <f aca="false">SUM(B31:N31)</f>
+        <v>215</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1355,20 +1491,28 @@
       <c r="B32" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D32" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="F32" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -1377,7 +1521,8 @@
       </c>
       <c r="O32" s="5"/>
       <c r="P32" s="2" t="n">
-        <v>150</v>
+        <f aca="false">SUM(B32:N32)</f>
+        <v>300</v>
       </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -1401,19 +1546,26 @@
       <c r="F33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="2" t="n">
-        <v>185</v>
+        <f aca="false">SUM(B33:N33)</f>
+        <v>255</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1442,14 +1594,17 @@
       <c r="I34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="2" t="n">
-        <v>200</v>
+        <f aca="false">SUM(B34:N34)</f>
+        <v>240</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1475,6 +1630,7 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="2" t="n">
+        <f aca="false">SUM(B35:N35)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="3"/>
@@ -1499,7 +1655,9 @@
       <c r="F36" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="2" t="s">
         <v>4</v>
@@ -1513,7 +1671,8 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="2" t="n">
-        <v>230</v>
+        <f aca="false">SUM(B36:N36)</f>
+        <v>270</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>

--- a/Cwiczenia/Punkty/punkty.xlsx
+++ b/Cwiczenia/Punkty/punkty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="948" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="474" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>indeks</t>
   </si>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>Ocena</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>ocena</t>
   </si>
   <si>
     <t>-</t>
@@ -104,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -115,14 +127,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -146,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -215,8 +219,19 @@
       <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
+      <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -234,7 +249,7 @@
       <c r="E2" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="2" t="n">
         <v>40</v>
       </c>
@@ -242,24 +257,34 @@
         <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="3"/>
       <c r="L2" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="2" t="n">
-        <f aca="false">SUM(B2:N2)</f>
         <v>340</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R2" s="3"/>
+      <c r="S2" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -298,17 +323,27 @@
       <c r="L3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="2" t="n">
-        <f aca="false">SUM(B3:N3)</f>
         <v>490</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" s="3"/>
+      <c r="S3" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -336,24 +371,34 @@
         <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="U4" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2" t="n">
-        <f aca="false">SUM(B4:N4)</f>
-        <v>305</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -371,7 +416,7 @@
       <c r="E5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="2" t="n">
         <v>30</v>
       </c>
@@ -379,22 +424,32 @@
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="2" t="n">
-        <f aca="false">SUM(B5:N5)</f>
         <v>265</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" s="3"/>
+      <c r="S5" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -415,27 +470,39 @@
       <c r="F6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2" t="n">
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="K6" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2" t="n">
-        <f aca="false">SUM(B6:N6)</f>
-        <v>240</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R6" s="3"/>
+      <c r="S6" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -463,24 +530,28 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="2" t="n">
-        <f aca="false">SUM(B7:N7)</f>
         <v>320</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -525,13 +596,17 @@
       <c r="N8" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="2" t="n">
-        <f aca="false">SUM(B8:N8)</f>
         <v>590</v>
       </c>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -543,7 +618,7 @@
       <c r="C9" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="n">
         <v>25</v>
       </c>
@@ -553,26 +628,34 @@
       <c r="G9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="I9" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="2" t="n">
-        <f aca="false">SUM(B9:N9)</f>
-        <v>210</v>
-      </c>
-      <c r="Q9" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -596,9 +679,9 @@
       <c r="G10" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>40</v>
@@ -606,16 +689,20 @@
       <c r="K10" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="2" t="n">
-        <f aca="false">SUM(B10:N10)</f>
         <v>260</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -643,22 +730,26 @@
         <v>30</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="2" t="n">
-        <f aca="false">SUM(B11:N11)</f>
         <v>300</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -673,27 +764,41 @@
       <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="2" t="n">
-        <f aca="false">SUM(B12:N12)</f>
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -711,7 +816,7 @@
       <c r="E13" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="2" t="n">
         <v>30</v>
       </c>
@@ -719,24 +824,28 @@
         <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="2" t="n">
-        <f aca="false">SUM(B13:N13)</f>
         <v>315</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -764,24 +873,28 @@
         <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="2" t="n">
-        <f aca="false">SUM(B14:N14)</f>
         <v>325</v>
       </c>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -809,22 +922,26 @@
         <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="2" t="n">
-        <f aca="false">SUM(B15:N15)</f>
         <v>285</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -849,10 +966,10 @@
         <v>40</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>40</v>
@@ -863,15 +980,19 @@
       <c r="L16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="2" t="n">
-        <f aca="false">SUM(B16:N16)</f>
-        <v>390</v>
-      </c>
-      <c r="Q16" s="3"/>
+        <v>410</v>
+      </c>
+      <c r="Q16" s="2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -910,42 +1031,46 @@
       <c r="L17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="2" t="n">
-        <f aca="false">SUM(B17:N17)</f>
         <v>270</v>
       </c>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>407345</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="2" t="n">
-        <f aca="false">SUM(B18:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -957,53 +1082,57 @@
       <c r="C19" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="2" t="n">
-        <f aca="false">SUM(B19:N19)</f>
         <v>80</v>
       </c>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>372073</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2" t="n">
-        <f aca="false">SUM(B20:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -1021,28 +1150,38 @@
       <c r="E21" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="F21" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="L21" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="2" t="n">
-        <f aca="false">SUM(B21:N21)</f>
-        <v>240</v>
-      </c>
-      <c r="Q21" s="3"/>
+        <v>280</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1070,28 +1209,32 @@
         <v>60</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>40</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="2" t="n">
-        <f aca="false">SUM(B22:N22)</f>
-        <v>450</v>
-      </c>
-      <c r="Q22" s="3"/>
+        <v>451</v>
+      </c>
+      <c r="Q22" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -1119,31 +1262,39 @@
         <v>40</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="2" t="n">
-        <f aca="false">SUM(B23:N23)</f>
         <v>370</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>362669</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="D24" s="2" t="n">
         <v>20</v>
       </c>
@@ -1153,25 +1304,33 @@
       <c r="F24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="K24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="2" t="n">
-        <f aca="false">SUM(B24:N24)</f>
-        <v>115</v>
-      </c>
-      <c r="Q24" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -1195,24 +1354,30 @@
       <c r="G25" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="K25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="2" t="n">
-        <f aca="false">SUM(B25:N25)</f>
-        <v>250</v>
-      </c>
-      <c r="Q25" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="Q25" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1240,7 +1405,7 @@
         <v>55</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>40</v>
@@ -1257,13 +1422,17 @@
       <c r="N26" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O26" s="5"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="2" t="n">
-        <f aca="false">SUM(B26:N26)</f>
         <v>505</v>
       </c>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -1284,23 +1453,27 @@
       <c r="F27" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="2" t="n">
-        <f aca="false">SUM(B27:N27)</f>
         <v>200</v>
       </c>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1328,22 +1501,26 @@
         <v>30</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O28" s="5"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="2" t="n">
-        <f aca="false">SUM(B28:N28)</f>
         <v>315</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1371,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J29" s="2" t="n">
         <v>40</v>
@@ -1382,15 +1559,19 @@
       <c r="L29" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="2" t="n">
-        <f aca="false">SUM(B29:N29)</f>
         <v>305</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -1414,9 +1595,9 @@
       <c r="G30" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H30" s="5"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>30</v>
@@ -1430,14 +1611,18 @@
       <c r="M30" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="2" t="n">
-        <f aca="false">SUM(B30:N30)</f>
         <v>380</v>
       </c>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -1462,10 +1647,10 @@
         <v>5</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J31" s="2" t="n">
         <v>40</v>
@@ -1473,16 +1658,22 @@
       <c r="K31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="L31" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="2" t="n">
-        <f aca="false">SUM(B31:N31)</f>
-        <v>215</v>
-      </c>
-      <c r="Q31" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="Q31" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -1506,26 +1697,36 @@
       <c r="G32" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="H32" s="5"/>
+      <c r="H32" s="2" t="n">
+        <v>40</v>
+      </c>
       <c r="I32" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="K32" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M32" s="3"/>
       <c r="N32" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="2" t="n">
-        <f aca="false">SUM(B32:N32)</f>
-        <v>300</v>
-      </c>
-      <c r="Q32" s="3"/>
+        <v>405</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -1549,9 +1750,9 @@
       <c r="G33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="H33" s="5"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J33" s="2" t="n">
         <v>40</v>
@@ -1559,16 +1760,20 @@
       <c r="K33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="2" t="n">
-        <f aca="false">SUM(B33:N33)</f>
         <v>255</v>
       </c>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -1589,52 +1794,60 @@
       <c r="F34" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="2" t="n">
-        <f aca="false">SUM(B34:N34)</f>
-        <v>240</v>
-      </c>
-      <c r="Q34" s="3"/>
+        <v>305</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>384077</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="2" t="n">
-        <f aca="false">SUM(B35:N35)</f>
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -1658,24 +1871,36 @@
       <c r="G36" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="H36" s="5"/>
+      <c r="H36" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="I36" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="K36" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="L36" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M36" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="2" t="n">
-        <f aca="false">SUM(B36:N36)</f>
-        <v>270</v>
-      </c>
-      <c r="Q36" s="3"/>
+        <v>451</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Cwiczenia/Punkty/punkty.xlsx
+++ b/Cwiczenia/Punkty/punkty.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -432,13 +432,15 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3" t="n">
+        <v>50</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2" t="n">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="2" t="n">
